--- a/silver/tables_comments.xlsx
+++ b/silver/tables_comments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fee9a9d567a890ff/Desktop/Master/Capstone/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morae\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{542D4439-F1C1-4413-B164-0C018611CCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D67A5C4-4F21-4CDB-8748-3DDF4580E405}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E244A2D-90AB-4700-974B-30B3DBA88407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{168714B6-8E65-43DA-BC6F-EA4CD1BE136D}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>Date and time of last recorded activity.</t>
   </si>
   <si>
-    <t>Date/time the deal was converted from a lead.</t>
-  </si>
-  <si>
     <t>Duration from lead to deal conversion.</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>Internal unique identifier for the deal.</t>
   </si>
   <si>
-    <t>When the deal is expected to be reopened or revisited.</t>
-  </si>
-  <si>
     <t>Internal ID of the associated account.</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t>Indicates if the deal has been formally approved.</t>
   </si>
   <si>
-    <t>Probability (as %) of deal success.</t>
-  </si>
-  <si>
     <t>Custom classification of the deal.</t>
   </si>
   <si>
@@ -498,6 +489,15 @@
   </si>
   <si>
     <t>converted_from_lead</t>
+  </si>
+  <si>
+    <t>Date/time in days the deal was converted from a lead.</t>
+  </si>
+  <si>
+    <t>When the deal is expected to be reopened or revisited. It is presented when there is a business state change to "Adiado".</t>
+  </si>
+  <si>
+    <t>Probability (as %) of closing the deal. It automatically changes from 50% (when the status is "Em Curso") to 25% when the status becomes "Adiado".</t>
   </si>
 </sst>
 </file>
@@ -584,10 +584,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD2AA9FC-B2A3-4F42-8600-C04A51E8464B}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,15 +917,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -937,7 +933,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -945,7 +941,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -953,7 +949,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -961,7 +957,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -969,7 +965,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
@@ -977,7 +973,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -985,7 +981,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -993,7 +989,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1001,7 +997,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
@@ -1009,7 +1005,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -1017,7 +1013,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
@@ -1025,7 +1021,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
@@ -1033,7 +1029,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
@@ -1041,7 +1037,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
@@ -1049,7 +1045,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -1057,7 +1053,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -1065,7 +1061,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -1073,7 +1069,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
@@ -1081,7 +1077,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
@@ -1089,7 +1085,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
@@ -1097,7 +1093,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -1105,7 +1101,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
@@ -1113,7 +1109,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -1121,418 +1117,418 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
